--- a/project1/p1Lexemes.xlsx
+++ b/project1/p1Lexemes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">end of code</t>
   </si>
   <si>
-    <t xml:space="preserve">[a-zA-Z](?:_?(?![0-9])[a-zA-Z0-9])*[a-zA-Z0-9]</t>
+    <t xml:space="preserve">[a-z], [A-Z]</t>
   </si>
   <si>
     <t xml:space="preserve">a, b_xy</t>
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
